--- a/Training Record.xlsx
+++ b/Training Record.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>events.out.tfevents.1511156800</t>
   </si>
@@ -89,6 +89,32 @@
   </si>
   <si>
     <t>events.out.tfevents.1511166972</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>### General parameters
+max_steps = 400002 # Set maximum number of steps to run environment.
+run_path = "ppo" # The sub-directory name for model and summary statistics
+load_model = False # Whether to load a saved model.
+train_model = True # Whether to train the model.
+summary_freq = 10000 # Frequency at which to save training statistics.
+save_freq = 50000 # Frequency at which to save model.
+env_name = "unity_environment_11_20_5" # Name of the training environment file.
+### Algorithm-specific parameters for tuning
+gamma = 0.99 # Reward discount rate.
+lambd = 0.95 # Lambda parameter for GAE.
+time_horizon = 2048 # How many steps to collect per agent before adding to buffer.
+beta = 1e-3 # Strength of entropy regularization
+num_epoch = 5 # Number of gradient descent steps per batch of experiences.
+epsilon = 0.2 # Acceptable threshold around ratio of old and new policy probabilities.
+buffer_size = 16384 # How large the experience buffer should be before gradient descent.
+learning_rate = 3e-5 # Model learning rate.
+hidden_units = 256 # Number of units in hidden layer.
+batch_size = 1024 # How many experiences per gradient descent update step.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/11/21/14/04-14/21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -498,20 +524,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.25" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="65.5" customWidth="1"/>
+    <col min="3" max="3" width="59.375" customWidth="1"/>
+    <col min="4" max="4" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -521,8 +548,11 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="409.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -532,8 +562,11 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -544,7 +577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
   </sheetData>

--- a/Training Record.xlsx
+++ b/Training Record.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>events.out.tfevents.1511156800</t>
   </si>
@@ -117,12 +117,233 @@
     <t>2017/11/21/14/04-14/21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>max_steps = 500002 # Set maximum number of steps to run environment.
+run_path = "ppo" # The sub-directory name for model and summary statistics
+load_model = False # Whether to load a saved model.
+train_model = True # Whether to train the model.
+summary_freq = 10000 # Frequency at which to save training statistics.
+save_freq = 50000 # Frequency at which to save model.
+env_name = "unity_environment_11_20_5" # Name of the training environment file.
+### Algorithm-specific parameters for tuning
+gamma = 0.99 # Reward discount rate.
+lambd = 0.95 # Lambda parameter for GAE.
+time_horizon = 2048 # How many steps to collect per agent before adding to buffer.
+beta = 1e-3 # Strength of entropy regularization
+num_epoch = 5 # Number of gradient descent steps per batch of experiences.
+epsilon = 0.2 # Acceptable threshold around ratio of old and new policy probabilities.
+buffer_size = 16384 # How large the experience buffer should be before gradient descent.
+learning_rate = 3e-5 # Model learning rate.
+hidden_units = 64 # Number of units in hidden layer.
+batch_size = 1024 # How many experiences per gradient descent update step.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events.out.tfevents.1511244793</t>
+  </si>
+  <si>
+    <t>events.out.tfevents.1511763768</t>
+  </si>
+  <si>
+    <t>max_steps = 500002 # Set maximum number of steps to run environment.
+run_path = "ppo" # The sub-directory name for model and summary statistics
+load_model = False # Whether to load a saved model.
+train_model = True # Whether to train the model.
+summary_freq = 10000 # Frequency at which to save training statistics.
+save_freq = 50000 # Frequency at which to save model.
+env_name = "unity_environment_11_20_5" # Name of the training environment file.
+### Algorithm-specific parameters for tuning
+gamma = 0.99 # Reward discount rate.
+lambd = 0.95 # Lambda parameter for GAE.
+time_horizon = 2048 # How many steps to collect per agent before adding to buffer.
+beta = 1e-3 # Strength of entropy regularization
+num_epoch = 5 # Number of gradient descent steps per batch of experiences.
+epsilon = 0.2 # Acceptable threshold around ratio of old and new policy probabilities.
+buffer_size = 16384 # How large the experience buffer should be before gradient descent.
+learning_rate = 3e-5 # Model learning rate.
+hidden_units = 512 # Number of units in hidden layer.
+batch_size = 1024 # How many experiences per gradient descent update step.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events.out.tfevents.1511766706</t>
+  </si>
+  <si>
+    <t>2017/11/27/14/13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/11/27/15/03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/11/27/17/00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>### General parameters
+max_steps = 500002 # Set maximum number of steps to run environment.
+run_path = "ppo" # The sub-directory name for model and summary statistics
+load_model = False # Whether to load a saved model.
+train_model = True # Whether to train the model.
+summary_freq = 10000 # Frequency at which to save training statistics.
+save_freq = 50000 # Frequency at which to save model.
+env_name = "unity_environment_11_20_5" # Name of the training environment file.
+### Algorithm-specific parameters for tuning
+gamma = 0.99 # Reward discount rate.
+lambd = 0.95 # Lambda parameter for GAE.
+time_horizon = 2048 # How many steps to collect per agent before adding to buffer.
+beta = 1e-3 # Strength of entropy regularization
+num_epoch = 5 # Number of gradient descent steps per batch of experiences.
+epsilon = 0.1 # Acceptable threshold around ratio of old and new policy probabilities.
+buffer_size = 16384 # How large the experience buffer should be before gradient descent.
+learning_rate = 3e-5 # Model learning rate.
+hidden_units = 256 # Number of units in hidden layer.
+batch_size = 1024 # How many experiences per gradient descent update step.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events.out.tfevents.1511773506</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/11/28/15/30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>### General parameters
+max_steps = 500002 # Set maximum number of steps to run environment.
+run_path = "ppo" # The sub-directory name for model and summary statistics
+load_model = False # Whether to load a saved model.
+train_model = True # Whether to train the model.
+summary_freq = 10000 # Frequency at which to save training statistics.
+save_freq = 50000 # Frequency at which to save model.
+env_name = "unity_environment_11_20_5" # Name of the training environment file.
+### Algorithm-specific parameters for tuning
+gamma = 0.99 # Reward discount rate.
+lambd = 0.95 # Lambda parameter for GAE.
+time_horizon = 2048 # How many steps to collect per agent before adding to buffer.
+beta = 1e-3 # Strength of entropy regularization
+num_epoch = 5 # Number of gradient descent steps per batch of experiences.
+epsilon = 0.2 # Acceptable threshold around ratio of old and new policy probabilities.
+buffer_size = 16384 # How large the experience buffer should be before gradient descent.
+learning_rate = 3e-5 # Model learning rate.
+hidden_units = 384 # Number of units in hidden layer.
+batch_size = 1024 # How many experiences per gradient descent update step.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events.out.tfevents.1511855201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/11/28/18/50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random### General parameters
+max_steps = 500002 # Set maximum number of steps to run environment.
+run_path = "ppo" # The sub-directory name for model and summary statistics
+load_model = False # Whether to load a saved model.
+train_model = True # Whether to train the model.
+summary_freq = 10000 # Frequency at which to save training statistics.
+save_freq = 50000 # Frequency at which to save model.
+env_name = "unity_environment_11_20_RA" # Name of the training environment file.
+### Algorithm-specific parameters for tuning
+gamma = 0.99 # Reward discount rate.
+lambd = 0.95 # Lambda parameter for GAE.
+time_horizon = 2048 # How many steps to collect per agent before adding to buffer.
+beta = 1e-3 # Strength of entropy regularization
+num_epoch = 5 # Number of gradient descent steps per batch of experiences.
+epsilon = 0.2 # Acceptable threshold around ratio of old and new policy probabilities.
+buffer_size = 16384 # How large the experience buffer should be before gradient descent.
+learning_rate = 3e-5 # Model learning rate.
+hidden_units = 256 # Number of units in hidden layer.
+batch_size = 1024 # How many experiences per gradient descent update step.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events.out.tfevents.1511864564</t>
+  </si>
+  <si>
+    <t>2017/11/28/22/05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random_modified### General parameters
+max_steps = 500002 # Set maximum number of steps to run environment.
+run_path = "ppo" # The sub-directory name for model and summary statistics
+load_model = False # Whether to load a saved model.
+train_model = True # Whether to train the model.
+summary_freq = 10000 # Frequency at which to save training statistics.
+save_freq = 50000 # Frequency at which to save model.
+env_name = "unity_environment_11_20_RA" # Name of the training environment file.
+### Algorithm-specific parameters for tuning
+gamma = 0.99 # Reward discount rate.
+lambd = 0.95 # Lambda parameter for GAE.
+time_horizon = 2048 # How many steps to collect per agent before adding to buffer.
+beta = 1e-3 # Strength of entropy regularization
+num_epoch = 5 # Number of gradient descent steps per batch of experiences.
+epsilon = 0.2 # Acceptable threshold around ratio of old and new policy probabilities.
+buffer_size = 16384 # How large the experience buffer should be before gradient descent.
+learning_rate = 3e-5 # Model learning rate.
+hidden_units = 256 # Number of units in hidden layer.
+batch_size = 1024 # How many experiences per gradient descent update step.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events.out.tfevents.1511876156</t>
+  </si>
+  <si>
+    <t>EXPERIMENT GROUP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPARSION GROUP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>### General parameters
+max_steps = 500002 # Set maximum number of steps to run environment.
+run_path = "ppo" # The sub-directory name for model and summary statistics
+load_model = False # Whether to load a saved model.
+train_model = True # Whether to train the model.
+summary_freq = 10000 # Frequency at which to save training statistics.
+save_freq = 50000 # Frequency at which to save model.
+env_name = "unity_environment_11_20_5" # Name of the training environment file.
+### Algorithm-specific parameters for tuning
+gamma = 0.99 # Reward discount rate.
+lambd = 0.95 # Lambda parameter for GAE.
+time_horizon = 2048 # How many steps to collect per agent before adding to buffer.
+beta = 1e-3 # Strength of entropy regularization
+num_epoch = 5 # Number of gradient descent steps per batch of experiences.
+epsilon = 0.2 # Acceptable threshold around ratio of old and new policy probabilities.
+buffer_size = 16384 # How large the experience buffer should be before gradient descent.
+learning_rate = 3e-5 # Model learning rate.
+hidden_units = 256 # Number of units in hidden layer.
+batch_size = 1024 # How many experiences per gradient descent update step.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events.out.tfevents.1512615382</t>
+  </si>
+  <si>
+    <t>2017/12/07/11/23/Guoyaohao_E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/12/06/15/13/Xuejingfan_E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events.out.tfevents.1512542061</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +368,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +390,13 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -184,16 +419,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,14 +494,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="计算" xfId="2" builtinId="22"/>
     <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,64 +833,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.25" customWidth="1"/>
-    <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="59.375" customWidth="1"/>
-    <col min="4" max="4" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="2" max="2" width="76.125" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="6" max="6" width="28.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="50.125" customWidth="1"/>
+    <col min="8" max="8" width="59.875" customWidth="1"/>
+    <col min="9" max="9" width="48.375" customWidth="1"/>
+    <col min="10" max="10" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="85.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="289.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="298.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="306.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="300.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="409.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
+    <row r="6" spans="1:6" ht="272.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+    <row r="7" spans="1:6" ht="272.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+    <row r="8" spans="1:6" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="301.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Training Record.xlsx
+++ b/Training Record.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>events.out.tfevents.1511156800</t>
   </si>
@@ -337,6 +337,35 @@
   </si>
   <si>
     <t>events.out.tfevents.1512542061</t>
+  </si>
+  <si>
+    <t>2017/12/09/12/57/Sunyutan_Dayan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>### General parameters
+max_steps = 500002 # Set maximum number of steps to run environment.
+run_path = "ppo" # The sub-directory name for model and summary statistics
+load_model = False # Whether to load a saved model.
+train_model = True # Whether to train the model.
+summary_freq = 10000 # Frequency at which to save training statistics.
+save_freq = 50000 # Frequency at which to save model.
+env_name = "unity_environment_11_20_RANDOM" # Name of the training environment file.
+### Algorithm-specific parameters for tuning
+gamma = 0.99 # Reward discount rate.
+lambd = 0.95 # Lambda parameter for GAE.
+time_horizon = 2048 # How many steps to collect per agent before adding to buffer.
+beta = 1e-3 # Strength of entropy regularization
+num_epoch = 5 # Number of gradient descent steps per batch of experiences.
+epsilon = 0.2 # Acceptable threshold around ratio of old and new policy probabilities.
+buffer_size = 16384 # How large the experience buffer should be before gradient descent.
+learning_rate = 3e-5 # Model learning rate.
+hidden_units = 256 # Number of units in hidden layer.
+batch_size = 1024 # How many experiences per gradient descent update step.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events.out.tfevents.1512793787</t>
   </si>
 </sst>
 </file>
@@ -505,6 +534,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,9 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -833,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -854,16 +883,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="85.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="289.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -915,6 +944,15 @@
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="300.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -972,7 +1010,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="301.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -983,7 +1021,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -992,6 +1030,10 @@
       <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="12" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Training Record.xlsx
+++ b/Training Record.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>events.out.tfevents.1511156800</t>
   </si>
@@ -169,15 +169,7 @@
     <t>events.out.tfevents.1511766706</t>
   </si>
   <si>
-    <t>2017/11/27/14/13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2017/11/27/15/03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/11/27/17/00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -237,10 +229,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017/11/28/18/50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Random### General parameters
 max_steps = 500002 # Set maximum number of steps to run environment.
 run_path = "ppo" # The sub-directory name for model and summary statistics
@@ -266,10 +254,6 @@
     <t>events.out.tfevents.1511864564</t>
   </si>
   <si>
-    <t>2017/11/28/22/05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Random_modified### General parameters
 max_steps = 500002 # Set maximum number of steps to run environment.
 run_path = "ppo" # The sub-directory name for model and summary statistics
@@ -366,6 +350,40 @@
   </si>
   <si>
     <t>events.out.tfevents.1512793787</t>
+  </si>
+  <si>
+    <t>2017/12/07/13/40/Yanran_E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events.out.tfevents.1512623680</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/12/07/13/40/zhangluojia_E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events.out.tfevents.1512629270</t>
+  </si>
+  <si>
+    <t>2017/12/10/15/26/Jiangyutong_step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events.out.tfevents.1512889232</t>
+  </si>
+  <si>
+    <t>2017/11/28/18/50/youxiaohui_random</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/11/28/22/05/youxiaohui_random</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/11/27/17/00/xu_e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -862,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -884,12 +902,12 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="85.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
       <c r="D1" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -904,14 +922,14 @@
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
+      <c r="D2" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="298.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -924,14 +942,14 @@
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
+      <c r="D3" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="306.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -945,13 +963,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="300.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -964,10 +982,19 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="272.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -978,7 +1005,7 @@
     </row>
     <row r="7" spans="1:6" ht="272.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -988,52 +1015,70 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="301.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
